--- a/medicine/Mort/Terrorisme_en_1981/Terrorisme_en_1981.xlsx
+++ b/medicine/Mort/Terrorisme_en_1981/Terrorisme_en_1981.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,18 +520,193 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Février
-5 février, Espagne : assassinat par ETA d’un cadre dirigeant de la centrale nucléaire de Lemóniz[1].
-Avril
-16 avril, France : une bombe explose à l'aéroport d'Ajaccio lors de l'arrivée du président Giscard d'Estaing, faisant un mort et huit blessés[2],[3].
-Mai
-16 mai, États-Unis : une explosion dans les toilettes du terminal Pan Am de l'aéroport Kennedy de New York fait un mort. L'attaque est revendiquée par le groupe « Résistance armée portoricaine »[4].
-Octobre
-20 octobre, Belgique : un attentat à la voiture piégée contre une synagogue d'Anvers fait trois morts et une soixantaine de blessés[5],[6].
-Novembre
-29 novembre, Syrie : un attentat à la voiture piégée dans le quartier d'Ezbekieh à Damas, revendiqué par les Frères musulmans, fait cent soixante-quinze morts[réf. souhaitée].
-Décembre
-15 décembre, Liban : un attentat à la voiture piégée contre l'ambassade irakienne à Beyrouth fait trente morts. Il n'est pas revendiqué[7].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 février, Espagne : assassinat par ETA d’un cadre dirigeant de la centrale nucléaire de Lemóniz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 avril, France : une bombe explose à l'aéroport d'Ajaccio lors de l'arrivée du président Giscard d'Estaing, faisant un mort et huit blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 mai, États-Unis : une explosion dans les toilettes du terminal Pan Am de l'aéroport Kennedy de New York fait un mort. L'attaque est revendiquée par le groupe « Résistance armée portoricaine ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20 octobre, Belgique : un attentat à la voiture piégée contre une synagogue d'Anvers fait trois morts et une soixantaine de blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>29 novembre, Syrie : un attentat à la voiture piégée dans le quartier d'Ezbekieh à Damas, revendiqué par les Frères musulmans, fait cent soixante-quinze morts[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1981</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15 décembre, Liban : un attentat à la voiture piégée contre l'ambassade irakienne à Beyrouth fait trente morts. Il n'est pas revendiqué.</t>
         </is>
       </c>
     </row>
